--- a/Code/Results/Cases/Case_2_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.575015132244857</v>
+        <v>1.204545672665859</v>
       </c>
       <c r="C2">
-        <v>0.9645612721661792</v>
+        <v>0.3310472128250979</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.105721331028619</v>
+        <v>0.8703704342090646</v>
       </c>
       <c r="F2">
-        <v>1.70727884154752</v>
+        <v>1.903892237169117</v>
       </c>
       <c r="G2">
-        <v>0.082422596114192</v>
+        <v>0.1744859203586913</v>
       </c>
       <c r="H2">
-        <v>0.1011070914196779</v>
+        <v>0.3633809362774727</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00644875693351743</v>
+        <v>0.01909735548007241</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3378427066842562</v>
+        <v>0.9797718923104668</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.116377818749925</v>
+        <v>1.054809573213731</v>
       </c>
       <c r="C3">
-        <v>0.8496284647875996</v>
+        <v>0.292662111559963</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9737611393509695</v>
+        <v>0.8380285508793719</v>
       </c>
       <c r="F3">
-        <v>1.531716540442673</v>
+        <v>1.877963039739072</v>
       </c>
       <c r="G3">
-        <v>0.07959031629778934</v>
+        <v>0.1793273158311735</v>
       </c>
       <c r="H3">
-        <v>0.1072646603627376</v>
+        <v>0.3702880574768272</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006585389933427166</v>
+        <v>0.01958290440316546</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3443216884782458</v>
+        <v>1.004227446932546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.834796972273807</v>
+        <v>0.9625168390858789</v>
       </c>
       <c r="C4">
-        <v>0.7790849504695814</v>
+        <v>0.2690063626012602</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8937109712319682</v>
+        <v>0.8185054343311435</v>
       </c>
       <c r="F4">
-        <v>1.427384167623515</v>
+        <v>1.863390112672079</v>
       </c>
       <c r="G4">
-        <v>0.07882604076657529</v>
+        <v>0.1826288461569199</v>
       </c>
       <c r="H4">
-        <v>0.1116472145633267</v>
+        <v>0.3748290706111739</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006735989171061441</v>
+        <v>0.01990684410387011</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3516173816266743</v>
+        <v>1.020559826869551</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.720022653053491</v>
+        <v>0.9248203684108489</v>
       </c>
       <c r="C5">
-        <v>0.7503369248517231</v>
+        <v>0.259345322087114</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8613066875067403</v>
+        <v>0.8106339367512874</v>
       </c>
       <c r="F5">
-        <v>1.385664359972353</v>
+        <v>1.857789503322863</v>
       </c>
       <c r="G5">
-        <v>0.07874232884774912</v>
+        <v>0.1840564276807868</v>
       </c>
       <c r="H5">
-        <v>0.1135767383178319</v>
+        <v>0.3767548545397936</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.006813018173312813</v>
+        <v>0.02004531226641681</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.355371639403451</v>
+        <v>1.027545027140569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.70096184161639</v>
+        <v>0.918555755730722</v>
       </c>
       <c r="C6">
-        <v>0.7455630733498424</v>
+        <v>0.2577398606007364</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8559382916046019</v>
+        <v>0.8093319773342387</v>
       </c>
       <c r="F6">
-        <v>1.378782834621518</v>
+        <v>1.856879912728857</v>
       </c>
       <c r="G6">
-        <v>0.07874169268376363</v>
+        <v>0.1842984247217814</v>
       </c>
       <c r="H6">
-        <v>0.1139055890217193</v>
+        <v>0.3770791718862938</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006826723127566048</v>
+        <v>0.02006869408859568</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3560407164299519</v>
+        <v>1.028724780487188</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.833249241348938</v>
+        <v>0.962008797758358</v>
       </c>
       <c r="C7">
-        <v>0.7786972578398661</v>
+        <v>0.2688761549438539</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.893273113579113</v>
+        <v>0.818398934961067</v>
       </c>
       <c r="F7">
-        <v>1.426818389802492</v>
+        <v>1.863313213656582</v>
       </c>
       <c r="G7">
-        <v>0.07882401199317002</v>
+        <v>0.1826477669655944</v>
       </c>
       <c r="H7">
-        <v>0.111672665286644</v>
+        <v>0.3748547377925426</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006736966037221848</v>
+        <v>0.01990868541694812</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.351664917830746</v>
+        <v>1.020652699006703</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.416850542854434</v>
+        <v>1.152991693087301</v>
       </c>
       <c r="C8">
-        <v>0.9249224031016752</v>
+        <v>0.3178305707329798</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.060001749745339</v>
+        <v>0.8591494909342003</v>
       </c>
       <c r="F8">
-        <v>1.64597973641466</v>
+        <v>1.894671568879204</v>
       </c>
       <c r="G8">
-        <v>0.08123296765381127</v>
+        <v>0.1760866586009584</v>
       </c>
       <c r="H8">
-        <v>0.1031005435964545</v>
+        <v>0.365700150698693</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.006481331640861399</v>
+        <v>0.01925939763055595</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.339355296811263</v>
+        <v>0.9879300511477709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.563208026090308</v>
+        <v>1.524601862754253</v>
       </c>
       <c r="C9">
-        <v>1.212255476079235</v>
+        <v>0.4131091233880966</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.396073297857711</v>
+        <v>0.9417190015913803</v>
       </c>
       <c r="F9">
-        <v>2.106868007501049</v>
+        <v>1.966905970812576</v>
       </c>
       <c r="G9">
-        <v>0.09452315360191221</v>
+        <v>0.1658532310371683</v>
       </c>
       <c r="H9">
-        <v>0.0914349354145898</v>
+        <v>0.3501353052020661</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.00656302171347356</v>
+        <v>0.0181922836278634</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3440778418476214</v>
+        <v>0.9342712453734521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.409298762633455</v>
+        <v>1.795749640745953</v>
       </c>
       <c r="C10">
-        <v>1.424319284902765</v>
+        <v>0.4826383230123383</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.650678134219788</v>
+        <v>1.004011011124248</v>
       </c>
       <c r="F10">
-        <v>2.469952122891698</v>
+        <v>2.0265987264508</v>
       </c>
       <c r="G10">
-        <v>0.1107459137586844</v>
+        <v>0.1599715912918427</v>
       </c>
       <c r="H10">
-        <v>0.08654856714229453</v>
+        <v>0.3401642158149372</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.007058791164389788</v>
+        <v>0.0175357671374492</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3689125400472761</v>
+        <v>0.901342121638919</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.795711653967032</v>
+        <v>1.918675295204991</v>
       </c>
       <c r="C11">
-        <v>1.52115108945145</v>
+        <v>0.5141601698314844</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.768706830131009</v>
+        <v>1.032705054447689</v>
       </c>
       <c r="F11">
-        <v>2.64179620642841</v>
+        <v>2.055209040224241</v>
       </c>
       <c r="G11">
-        <v>0.119826786289039</v>
+        <v>0.1576580973278254</v>
       </c>
       <c r="H11">
-        <v>0.08525796482296499</v>
+        <v>0.3359480237190837</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.007398531500996341</v>
+        <v>0.01726517554624252</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3857595209409368</v>
+        <v>0.8877904354331463</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.942314415876524</v>
+        <v>1.965161345256433</v>
       </c>
       <c r="C12">
-        <v>1.557884332360231</v>
+        <v>0.5260805737848955</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.813767880885294</v>
+        <v>1.043622123624502</v>
       </c>
       <c r="F12">
-        <v>2.707953814319865</v>
+        <v>2.066253534911112</v>
       </c>
       <c r="G12">
-        <v>0.1235372930363781</v>
+        <v>0.1568346623856698</v>
       </c>
       <c r="H12">
-        <v>0.08491539216083765</v>
+        <v>0.3343976037244687</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.007545408309503898</v>
+        <v>0.01716677729585747</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.3930200766779848</v>
+        <v>0.8828656389110705</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.910727610570632</v>
+        <v>1.955152597536994</v>
       </c>
       <c r="C13">
-        <v>1.54997005474371</v>
+        <v>0.5235140362239576</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.804046062816354</v>
+        <v>1.041268659155151</v>
       </c>
       <c r="F13">
-        <v>2.693655273920569</v>
+        <v>2.063865531441309</v>
       </c>
       <c r="G13">
-        <v>0.1227256247071935</v>
+        <v>0.1570096538725991</v>
       </c>
       <c r="H13">
-        <v>0.08498246777595853</v>
+        <v>0.334729458434559</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.007512934796512383</v>
+        <v>0.01718778761571471</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3914158095505229</v>
+        <v>0.883917053157802</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.807766858617981</v>
+        <v>1.922501013113731</v>
       </c>
       <c r="C14">
-        <v>1.524171771389319</v>
+        <v>0.5151411985685854</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.772406394717024</v>
+        <v>1.033602181527129</v>
       </c>
       <c r="F14">
-        <v>2.64721655426456</v>
+        <v>2.056113454889044</v>
       </c>
       <c r="G14">
-        <v>0.1201264413908376</v>
+        <v>0.1575892947159332</v>
       </c>
       <c r="H14">
-        <v>0.08522677920302613</v>
+        <v>0.3358195435377098</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.007410239002169305</v>
+        <v>0.01725699852222107</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3863386954653976</v>
+        <v>0.8873811130770974</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.744738248528733</v>
+        <v>1.902492660828216</v>
       </c>
       <c r="C15">
-        <v>1.508378466354941</v>
+        <v>0.5100104558345606</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.75307539908043</v>
+        <v>1.028912915238493</v>
       </c>
       <c r="F15">
-        <v>2.618916551861645</v>
+        <v>2.051392514390187</v>
       </c>
       <c r="G15">
-        <v>0.1185706048659512</v>
+        <v>0.1579512128889249</v>
       </c>
       <c r="H15">
-        <v>0.08539583629935521</v>
+        <v>0.3364932691423235</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.007349764448798979</v>
+        <v>0.01729992309607198</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3833461244041132</v>
+        <v>0.8895299459295103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.384081213038371</v>
+        <v>1.787707459327748</v>
       </c>
       <c r="C16">
-        <v>1.417999481329559</v>
+        <v>0.4805760676629234</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.643013153273628</v>
+        <v>1.002142965582934</v>
       </c>
       <c r="F16">
-        <v>2.458866370140129</v>
+        <v>2.024758358844792</v>
       </c>
       <c r="G16">
-        <v>0.1101889587304612</v>
+        <v>0.1601301182594312</v>
       </c>
       <c r="H16">
-        <v>0.08665268143634819</v>
+        <v>0.3404462031860049</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.007039036897216633</v>
+        <v>0.01755401848070193</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3679301577101199</v>
+        <v>0.9022566265633287</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.163259057028654</v>
+        <v>1.717180730984182</v>
       </c>
       <c r="C17">
-        <v>1.362656691848372</v>
+        <v>0.4624909599609737</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.576092054263427</v>
+        <v>0.9858118620043825</v>
       </c>
       <c r="F17">
-        <v>2.362475086234724</v>
+        <v>2.008792772987022</v>
       </c>
       <c r="G17">
-        <v>0.1055014094442726</v>
+        <v>0.161559950406172</v>
       </c>
       <c r="H17">
-        <v>0.08767078066556167</v>
+        <v>0.3429532177930525</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.006878899896438639</v>
+        <v>0.01771710890150757</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3599512413073995</v>
+        <v>0.9104308994113666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.036387488778132</v>
+        <v>1.676576171772581</v>
       </c>
       <c r="C18">
-        <v>1.330858296539645</v>
+        <v>0.4520788287088635</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.537805407577764</v>
+        <v>0.976452259885491</v>
       </c>
       <c r="F18">
-        <v>2.307653581915133</v>
+        <v>1.999746752029992</v>
       </c>
       <c r="G18">
-        <v>0.1029636135880523</v>
+        <v>0.1624164002156832</v>
       </c>
       <c r="H18">
-        <v>0.08834332985298232</v>
+        <v>0.3444252673904842</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.006797426660863692</v>
+        <v>0.01781355341823776</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3558789770711144</v>
+        <v>0.9152668338710299</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.993453239941857</v>
+        <v>1.662821473250801</v>
       </c>
       <c r="C19">
-        <v>1.320097252732808</v>
+        <v>0.4485517574687492</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.524875944350029</v>
+        <v>0.9732890360311188</v>
       </c>
       <c r="F19">
-        <v>2.289194894482335</v>
+        <v>1.996707416167396</v>
       </c>
       <c r="G19">
-        <v>0.1021307658885036</v>
+        <v>0.1627122099321241</v>
       </c>
       <c r="H19">
-        <v>0.08858562726096153</v>
+        <v>0.3449288388516578</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.006771615208833737</v>
+        <v>0.01784666013428726</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3545865553847563</v>
+        <v>0.9169272171594969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.186751113742162</v>
+        <v>1.724692524340639</v>
       </c>
       <c r="C20">
-        <v>1.368544488457871</v>
+        <v>0.464417197104467</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.583194407503314</v>
+        <v>0.9875468573412718</v>
       </c>
       <c r="F20">
-        <v>2.37267105207826</v>
+        <v>2.010478154231777</v>
       </c>
       <c r="G20">
-        <v>0.1059838278530094</v>
+        <v>0.161404214367181</v>
       </c>
       <c r="H20">
-        <v>0.08755331720033865</v>
+        <v>0.3426832271701628</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.006894833706446946</v>
+        <v>0.01769947425378149</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3607465240596781</v>
+        <v>0.909546822058573</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.838000934315801</v>
+        <v>1.932093312376935</v>
       </c>
       <c r="C21">
-        <v>1.531747475368377</v>
+        <v>0.5176009509015671</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.781689381712482</v>
+        <v>1.035852621432895</v>
       </c>
       <c r="F21">
-        <v>2.660826264067168</v>
+        <v>2.058384709368966</v>
       </c>
       <c r="G21">
-        <v>0.1208822807894379</v>
+        <v>0.1574176071430387</v>
       </c>
       <c r="H21">
-        <v>0.08515095110922744</v>
+        <v>0.335498104847133</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.007439893476627546</v>
+        <v>0.01723655890319087</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3878053621757829</v>
+        <v>0.8863580058935838</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.265273185016895</v>
+        <v>2.067271942997536</v>
       </c>
       <c r="C22">
-        <v>1.638796656458112</v>
+        <v>0.5522646120670629</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.91357788908708</v>
+        <v>1.067721961016034</v>
       </c>
       <c r="F22">
-        <v>2.85553717297023</v>
+        <v>2.090921216561355</v>
       </c>
       <c r="G22">
-        <v>0.1322176925012073</v>
+        <v>0.1551191878904987</v>
       </c>
       <c r="H22">
-        <v>0.08443910302098345</v>
+        <v>0.3310713572468771</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.007903304310277193</v>
+        <v>0.01695774937481076</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.410668458657355</v>
+        <v>0.8724096766521967</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.037059141151929</v>
+        <v>1.995159285939906</v>
       </c>
       <c r="C23">
-        <v>1.581622516316429</v>
+        <v>0.5337729178770587</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.842971367148593</v>
+        <v>1.050685389903762</v>
       </c>
       <c r="F23">
-        <v>2.750987866826307</v>
+        <v>2.073443269219297</v>
       </c>
       <c r="G23">
-        <v>0.1260119349594859</v>
+        <v>0.1563176147853866</v>
       </c>
       <c r="H23">
-        <v>0.08473623526344909</v>
+        <v>0.3334093071608066</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.007645527570257826</v>
+        <v>0.01710437258992492</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.397962901754596</v>
+        <v>0.8797432038360284</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.17613010369314</v>
+        <v>1.72129662241241</v>
       </c>
       <c r="C24">
-        <v>1.365882557669579</v>
+        <v>0.4635463912151181</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.579982854181793</v>
+        <v>0.9867623744684977</v>
       </c>
       <c r="F24">
-        <v>2.368059611459117</v>
+        <v>2.009715779758238</v>
       </c>
       <c r="G24">
-        <v>0.1057652390653061</v>
+        <v>0.1614745154559714</v>
       </c>
       <c r="H24">
-        <v>0.08760615163225083</v>
+        <v>0.3428051942092978</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.006887597174447535</v>
+        <v>0.01770743852746648</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3603853790516496</v>
+        <v>0.9099460885550315</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.25261871529608</v>
+        <v>1.424393342791575</v>
       </c>
       <c r="C25">
-        <v>1.134402572579916</v>
+        <v>0.3874143241890238</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.303972411531177</v>
+        <v>0.9190964260263428</v>
       </c>
       <c r="F25">
-        <v>1.978314789006703</v>
+        <v>1.946207118618588</v>
       </c>
       <c r="G25">
-        <v>0.08988855531782747</v>
+        <v>0.1683364858298262</v>
       </c>
       <c r="H25">
-        <v>0.09398588367550786</v>
+        <v>0.3540894981431535</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.006470599676672961</v>
+        <v>0.01845870917227899</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3393378409694066</v>
+        <v>0.9476532121754957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.204545672665859</v>
+        <v>3.575015132244914</v>
       </c>
       <c r="C2">
-        <v>0.3310472128250979</v>
+        <v>0.9645612721664349</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8703704342090646</v>
+        <v>1.105721331028576</v>
       </c>
       <c r="F2">
-        <v>1.903892237169117</v>
+        <v>1.707278841547492</v>
       </c>
       <c r="G2">
-        <v>0.1744859203586913</v>
+        <v>0.08242259611421332</v>
       </c>
       <c r="H2">
-        <v>0.3633809362774727</v>
+        <v>0.1011070914197916</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01909735548007241</v>
+        <v>0.006448756933572497</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9797718923104668</v>
+        <v>0.3378427066842136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.054809573213731</v>
+        <v>3.116377818750038</v>
       </c>
       <c r="C3">
-        <v>0.292662111559963</v>
+        <v>0.849628464787628</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8380285508793719</v>
+        <v>0.9737611393509553</v>
       </c>
       <c r="F3">
-        <v>1.877963039739072</v>
+        <v>1.531716540442673</v>
       </c>
       <c r="G3">
-        <v>0.1793273158311735</v>
+        <v>0.07959031629779645</v>
       </c>
       <c r="H3">
-        <v>0.3702880574768272</v>
+        <v>0.1072646603627376</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01958290440316546</v>
+        <v>0.006585389933418284</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.004227446932546</v>
+        <v>0.3443216884782458</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9625168390858789</v>
+        <v>2.834796972273864</v>
       </c>
       <c r="C4">
-        <v>0.2690063626012602</v>
+        <v>0.7790849504696098</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8185054343311435</v>
+        <v>0.8937109712319966</v>
       </c>
       <c r="F4">
-        <v>1.863390112672079</v>
+        <v>1.427384167623501</v>
       </c>
       <c r="G4">
-        <v>0.1826288461569199</v>
+        <v>0.07882604076657884</v>
       </c>
       <c r="H4">
-        <v>0.3748290706111739</v>
+        <v>0.1116472145633161</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01990684410387011</v>
+        <v>0.006735989171091639</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.020559826869551</v>
+        <v>0.3516173816266672</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9248203684108489</v>
+        <v>2.720022653053434</v>
       </c>
       <c r="C5">
-        <v>0.259345322087114</v>
+        <v>0.7503369248517515</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8106339367512874</v>
+        <v>0.8613066875067261</v>
       </c>
       <c r="F5">
-        <v>1.857789503322863</v>
+        <v>1.385664359972353</v>
       </c>
       <c r="G5">
-        <v>0.1840564276807868</v>
+        <v>0.07874232884769228</v>
       </c>
       <c r="H5">
-        <v>0.3767548545397936</v>
+        <v>0.1135767383177253</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02004531226641681</v>
+        <v>0.00681301817336788</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.027545027140569</v>
+        <v>0.3553716394034439</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.918555755730722</v>
+        <v>2.700961841616163</v>
       </c>
       <c r="C6">
-        <v>0.2577398606007364</v>
+        <v>0.7455630733498708</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8093319773342387</v>
+        <v>0.8559382916046161</v>
       </c>
       <c r="F6">
-        <v>1.856879912728857</v>
+        <v>1.378782834621504</v>
       </c>
       <c r="G6">
-        <v>0.1842984247217814</v>
+        <v>0.07874169268370323</v>
       </c>
       <c r="H6">
-        <v>0.3770791718862938</v>
+        <v>0.1139055890217193</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02006869408859568</v>
+        <v>0.006826723127524303</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.028724780487188</v>
+        <v>0.3560407164299093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.962008797758358</v>
+        <v>2.833249241348938</v>
       </c>
       <c r="C7">
-        <v>0.2688761549438539</v>
+        <v>0.7786972578398945</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.818398934961067</v>
+        <v>0.8932731135791272</v>
       </c>
       <c r="F7">
-        <v>1.863313213656582</v>
+        <v>1.426818389802506</v>
       </c>
       <c r="G7">
-        <v>0.1826477669655944</v>
+        <v>0.07882401199311673</v>
       </c>
       <c r="H7">
-        <v>0.3748547377925426</v>
+        <v>0.111672665286644</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01990868541694812</v>
+        <v>0.006736966037216519</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.020652699006703</v>
+        <v>0.3516649178307532</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.152991693087301</v>
+        <v>3.416850542854547</v>
       </c>
       <c r="C8">
-        <v>0.3178305707329798</v>
+        <v>0.9249224031016183</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8591494909342003</v>
+        <v>1.060001749745339</v>
       </c>
       <c r="F8">
-        <v>1.894671568879204</v>
+        <v>1.64597973641466</v>
       </c>
       <c r="G8">
-        <v>0.1760866586009584</v>
+        <v>0.08123296765381838</v>
       </c>
       <c r="H8">
-        <v>0.365700150698693</v>
+        <v>0.1031005435964545</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01925939763055595</v>
+        <v>0.006481331640856069</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9879300511477709</v>
+        <v>0.339355296811263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.524601862754253</v>
+        <v>4.563208026090365</v>
       </c>
       <c r="C9">
-        <v>0.4131091233880966</v>
+        <v>1.212255476079406</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9417190015913803</v>
+        <v>1.396073297857683</v>
       </c>
       <c r="F9">
-        <v>1.966905970812576</v>
+        <v>2.106868007501049</v>
       </c>
       <c r="G9">
-        <v>0.1658532310371683</v>
+        <v>0.09452315360190511</v>
       </c>
       <c r="H9">
-        <v>0.3501353052020661</v>
+        <v>0.09143493541459691</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0181922836278634</v>
+        <v>0.006563021713480666</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9342712453734521</v>
+        <v>0.3440778418475787</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.795749640745953</v>
+        <v>5.409298762633682</v>
       </c>
       <c r="C10">
-        <v>0.4826383230123383</v>
+        <v>1.424319284902538</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.004011011124248</v>
+        <v>1.650678134219802</v>
       </c>
       <c r="F10">
-        <v>2.0265987264508</v>
+        <v>2.469952122891669</v>
       </c>
       <c r="G10">
-        <v>0.1599715912918427</v>
+        <v>0.1107459137586844</v>
       </c>
       <c r="H10">
-        <v>0.3401642158149372</v>
+        <v>0.08654856714229453</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0175357671374492</v>
+        <v>0.007058791164336498</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.901342121638919</v>
+        <v>0.3689125400472761</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.918675295204991</v>
+        <v>5.795711653967146</v>
       </c>
       <c r="C11">
-        <v>0.5141601698314844</v>
+        <v>1.52115108945145</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.032705054447689</v>
+        <v>1.768706830130981</v>
       </c>
       <c r="F11">
-        <v>2.055209040224241</v>
+        <v>2.641796206428438</v>
       </c>
       <c r="G11">
-        <v>0.1576580973278254</v>
+        <v>0.1198267862891029</v>
       </c>
       <c r="H11">
-        <v>0.3359480237190837</v>
+        <v>0.08525796482307868</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01726517554624252</v>
+        <v>0.007398531500879102</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8877904354331463</v>
+        <v>0.3857595209409226</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.965161345256433</v>
+        <v>5.942314415876524</v>
       </c>
       <c r="C12">
-        <v>0.5260805737848955</v>
+        <v>1.557884332359947</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.043622123624502</v>
+        <v>1.813767880885322</v>
       </c>
       <c r="F12">
-        <v>2.066253534911112</v>
+        <v>2.707953814319865</v>
       </c>
       <c r="G12">
-        <v>0.1568346623856698</v>
+        <v>0.1235372930363212</v>
       </c>
       <c r="H12">
-        <v>0.3343976037244687</v>
+        <v>0.08491539216083765</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01716677729585747</v>
+        <v>0.007545408309507451</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8828656389110705</v>
+        <v>0.3930200766779848</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.955152597536994</v>
+        <v>5.910727610570632</v>
       </c>
       <c r="C13">
-        <v>0.5235140362239576</v>
+        <v>1.549970054743994</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.041268659155151</v>
+        <v>1.804046062816369</v>
       </c>
       <c r="F13">
-        <v>2.063865531441309</v>
+        <v>2.693655273920569</v>
       </c>
       <c r="G13">
-        <v>0.1570096538725991</v>
+        <v>0.1227256247072575</v>
       </c>
       <c r="H13">
-        <v>0.334729458434559</v>
+        <v>0.08498246777607221</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01718778761571471</v>
+        <v>0.00751293479652837</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.883917053157802</v>
+        <v>0.3914158095505513</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.922501013113731</v>
+        <v>5.807766858617981</v>
       </c>
       <c r="C14">
-        <v>0.5151411985685854</v>
+        <v>1.524171771389263</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.033602181527129</v>
+        <v>1.772406394717009</v>
       </c>
       <c r="F14">
-        <v>2.056113454889044</v>
+        <v>2.647216554264588</v>
       </c>
       <c r="G14">
-        <v>0.1575892947159332</v>
+        <v>0.1201264413908376</v>
       </c>
       <c r="H14">
-        <v>0.3358195435377098</v>
+        <v>0.08522677920302613</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01725699852222107</v>
+        <v>0.007410239002105357</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8873811130770974</v>
+        <v>0.3863386954653976</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.902492660828216</v>
+        <v>5.744738248528733</v>
       </c>
       <c r="C15">
-        <v>0.5100104558345606</v>
+        <v>1.508378466354941</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.028912915238493</v>
+        <v>1.753075399080416</v>
       </c>
       <c r="F15">
-        <v>2.051392514390187</v>
+        <v>2.618916551861645</v>
       </c>
       <c r="G15">
-        <v>0.1579512128889249</v>
+        <v>0.1185706048659512</v>
       </c>
       <c r="H15">
-        <v>0.3364932691423235</v>
+        <v>0.08539583629924152</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01729992309607198</v>
+        <v>0.007349764448800755</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8895299459295103</v>
+        <v>0.3833461244041132</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.787707459327748</v>
+        <v>5.384081213038371</v>
       </c>
       <c r="C16">
-        <v>0.4805760676629234</v>
+        <v>1.417999481329559</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.002142965582934</v>
+        <v>1.643013153273614</v>
       </c>
       <c r="F16">
-        <v>2.024758358844792</v>
+        <v>2.4588663701401</v>
       </c>
       <c r="G16">
-        <v>0.1601301182594312</v>
+        <v>0.1101889587304612</v>
       </c>
       <c r="H16">
-        <v>0.3404462031860049</v>
+        <v>0.08665268143646188</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01755401848070193</v>
+        <v>0.007039036897216633</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9022566265633287</v>
+        <v>0.3679301577101199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.717180730984182</v>
+        <v>5.163259057028824</v>
       </c>
       <c r="C17">
-        <v>0.4624909599609737</v>
+        <v>1.362656691848372</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9858118620043825</v>
+        <v>1.576092054263398</v>
       </c>
       <c r="F17">
-        <v>2.008792772987022</v>
+        <v>2.362475086234724</v>
       </c>
       <c r="G17">
-        <v>0.161559950406172</v>
+        <v>0.1055014094442654</v>
       </c>
       <c r="H17">
-        <v>0.3429532177930525</v>
+        <v>0.08767078066556167</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01771710890150757</v>
+        <v>0.006878899896328505</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9104308994113666</v>
+        <v>0.3599512413073285</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.676576171772581</v>
+        <v>5.036387488778132</v>
       </c>
       <c r="C18">
-        <v>0.4520788287088635</v>
+        <v>1.330858296539418</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.976452259885491</v>
+        <v>1.537805407577792</v>
       </c>
       <c r="F18">
-        <v>1.999746752029992</v>
+        <v>2.307653581915162</v>
       </c>
       <c r="G18">
-        <v>0.1624164002156832</v>
+        <v>0.1029636135879315</v>
       </c>
       <c r="H18">
-        <v>0.3444252673904842</v>
+        <v>0.08834332985309601</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01781355341823776</v>
+        <v>0.006797426660813954</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9152668338710299</v>
+        <v>0.3558789770711002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.662821473250801</v>
+        <v>4.993453239941857</v>
       </c>
       <c r="C19">
-        <v>0.4485517574687492</v>
+        <v>1.320097252732864</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9732890360311188</v>
+        <v>1.524875944350043</v>
       </c>
       <c r="F19">
-        <v>1.996707416167396</v>
+        <v>2.289194894482321</v>
       </c>
       <c r="G19">
-        <v>0.1627122099321241</v>
+        <v>0.1021307658885107</v>
       </c>
       <c r="H19">
-        <v>0.3449288388516578</v>
+        <v>0.08858562726096864</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01784666013428726</v>
+        <v>0.006771615208828408</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9169272171594969</v>
+        <v>0.3545865553847136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.724692524340639</v>
+        <v>5.186751113742048</v>
       </c>
       <c r="C20">
-        <v>0.464417197104467</v>
+        <v>1.368544488457701</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9875468573412718</v>
+        <v>1.583194407503328</v>
       </c>
       <c r="F20">
-        <v>2.010478154231777</v>
+        <v>2.37267105207826</v>
       </c>
       <c r="G20">
-        <v>0.161404214367181</v>
+        <v>0.1059838278530165</v>
       </c>
       <c r="H20">
-        <v>0.3426832271701628</v>
+        <v>0.08755331720033865</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01769947425378149</v>
+        <v>0.006894833706502013</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.909546822058573</v>
+        <v>0.3607465240596781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.932093312376935</v>
+        <v>5.838000934316085</v>
       </c>
       <c r="C21">
-        <v>0.5176009509015671</v>
+        <v>1.531747475368036</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.035852621432895</v>
+        <v>1.781689381712511</v>
       </c>
       <c r="F21">
-        <v>2.058384709368966</v>
+        <v>2.660826264067168</v>
       </c>
       <c r="G21">
-        <v>0.1574176071430387</v>
+        <v>0.1208822807894379</v>
       </c>
       <c r="H21">
-        <v>0.335498104847133</v>
+        <v>0.08515095110922033</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01723655890319087</v>
+        <v>0.007439893476629322</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8863580058935838</v>
+        <v>0.3878053621757829</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.067271942997536</v>
+        <v>6.265273185016554</v>
       </c>
       <c r="C22">
-        <v>0.5522646120670629</v>
+        <v>1.638796656458112</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.067721961016034</v>
+        <v>1.913577889087051</v>
       </c>
       <c r="F22">
-        <v>2.090921216561355</v>
+        <v>2.855537172970259</v>
       </c>
       <c r="G22">
-        <v>0.1551191878904987</v>
+        <v>0.1322176925012144</v>
       </c>
       <c r="H22">
-        <v>0.3310713572468771</v>
+        <v>0.08443910302098345</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01695774937481076</v>
+        <v>0.007903304310223902</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8724096766521967</v>
+        <v>0.4106684586573266</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.995159285939906</v>
+        <v>6.037059141151701</v>
       </c>
       <c r="C23">
-        <v>0.5337729178770587</v>
+        <v>1.581622516316202</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.050685389903762</v>
+        <v>1.842971367148579</v>
       </c>
       <c r="F23">
-        <v>2.073443269219297</v>
+        <v>2.750987866826307</v>
       </c>
       <c r="G23">
-        <v>0.1563176147853866</v>
+        <v>0.1260119349594646</v>
       </c>
       <c r="H23">
-        <v>0.3334093071608066</v>
+        <v>0.0847362352633283</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01710437258992492</v>
+        <v>0.007645527570204536</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8797432038360284</v>
+        <v>0.3979629017545818</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.72129662241241</v>
+        <v>5.176130103693254</v>
       </c>
       <c r="C24">
-        <v>0.4635463912151181</v>
+        <v>1.365882557669352</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9867623744684977</v>
+        <v>1.579982854181793</v>
       </c>
       <c r="F24">
-        <v>2.009715779758238</v>
+        <v>2.368059611459131</v>
       </c>
       <c r="G24">
-        <v>0.1614745154559714</v>
+        <v>0.1057652390653132</v>
       </c>
       <c r="H24">
-        <v>0.3428051942092978</v>
+        <v>0.08760615163225083</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01770743852746648</v>
+        <v>0.006887597174451088</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9099460885550315</v>
+        <v>0.3603853790516354</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.424393342791575</v>
+        <v>4.252618715295966</v>
       </c>
       <c r="C25">
-        <v>0.3874143241890238</v>
+        <v>1.134402572580143</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9190964260263428</v>
+        <v>1.303972411531134</v>
       </c>
       <c r="F25">
-        <v>1.946207118618588</v>
+        <v>1.978314789006703</v>
       </c>
       <c r="G25">
-        <v>0.1683364858298262</v>
+        <v>0.08988855531788431</v>
       </c>
       <c r="H25">
-        <v>0.3540894981431535</v>
+        <v>0.09398588367552208</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01845870917227899</v>
+        <v>0.006470599676720923</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9476532121754957</v>
+        <v>0.3393378409694634</v>
       </c>
     </row>
   </sheetData>
